--- a/output/instance_SMALL_scenario_2/master_variables_site0.xlsx
+++ b/output/instance_SMALL_scenario_2/master_variables_site0.xlsx
@@ -618,7 +618,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100000</v>
+        <v>80000</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>90561.41140954017</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="AE2" t="n">
         <v>0</v>
@@ -741,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>98378.19953973287</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -969,7 +969,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1029,7 +1029,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1094,7 +1094,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
